--- a/workspace/sample_point_test.xlsx
+++ b/workspace/sample_point_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA59D6CE-A8F1-484A-9279-C8C90D881664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3B7C4E-00F3-4AC1-9E08-F9101929BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4072,7 +4072,7 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
